--- a/data/trans_dic/P16B13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>19,14; 92,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>56,71; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>67,06; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>42,73; 93,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,91%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>41,44; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>38,59; 93,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>37,82; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>42,85; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>67,58; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>55,57; 94,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>59,63; 93,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>66,52; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,16%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>68,15; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>56,58; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>48,18; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>84,04; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>85,44; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>74,31; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,24%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>63,17; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>46,66; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>76,01; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>81,9; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>87,69; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>83,43; 98,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>63,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>76,17; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>71,54; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>80,4; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>87,6; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>86,91; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,02%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>84,58; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>90,75; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>90,39; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>91,08; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>91,7; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>96,8; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>94,98; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>88,83; 98,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>85,15; 96,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>84,96; 98,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>90,16; 98,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>95,8; 99,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>93,26; 99,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>91,82; 97,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>92,79; 97,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>92,17; 98,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,12 +1182,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1207,22 +1207,22 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,58; 100,0</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,75; 100,0</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,39; 100,0</t>
+          <t>83,09; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,51; 100</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,08; 100,0</t>
+          <t>78,88; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,7; 100,0</t>
+          <t>89,72; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,8; 100,0</t>
+          <t>96,7; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,98; 100,0</t>
+          <t>88,67; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>75,26; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>82,03; 100,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 100</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94,97; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94,04; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90,38; 100,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92,35; 100,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96,32; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95,86%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>97,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95,5%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95,71%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>88,83; 98,95</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>85,15; 96,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>84,96; 98,14</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>90,16; 98,34</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>95,8; 99,53</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>93,26; 99,32</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>91,82; 97,86</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>92,79; 97,69</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>92,17; 98,18</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 92,36</t>
+          <t>18,61; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,06; 100,0</t>
+          <t>66,56; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,73; 93,21</t>
+          <t>43,02; 93,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,27 +796,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,44; 100,0</t>
+          <t>42,24; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,59; 93,5</t>
+          <t>42,88; 93,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,82; 100,0</t>
+          <t>30,51; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 100,0</t>
+          <t>43,14; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,58; 100,0</t>
+          <t>66,96; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,57; 94,72</t>
+          <t>58,45; 94,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,63; 93,61</t>
+          <t>59,76; 96,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,52; 100,0</t>
+          <t>58,49; 100,0</t>
         </is>
       </c>
     </row>
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,15; 100,0</t>
+          <t>68,36; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,58; 100,0</t>
+          <t>57,05; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,18; 100,0</t>
+          <t>48,64; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,04; 100,0</t>
+          <t>81,15; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,44; 100,0</t>
+          <t>85,41; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,31; 100,0</t>
+          <t>74,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,17; 100,0</t>
+          <t>67,42; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,66; 100,0</t>
+          <t>42,28; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,01; 100,0</t>
+          <t>79,53; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,9; 100,0</t>
+          <t>83,13; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,17 +1046,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,69; 100,0</t>
+          <t>87,97; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,43; 98,6</t>
+          <t>83,04; 98,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,02; 100,0</t>
+          <t>66,17; 100,0</t>
         </is>
       </c>
     </row>
@@ -1135,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,17; 100,0</t>
+          <t>77,08; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71,54; 100,0</t>
+          <t>79,11; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,4; 100,0</t>
+          <t>86,76; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,6; 100,0</t>
+          <t>87,24; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,91; 100,0</t>
+          <t>87,1; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,09; 100,0</t>
+          <t>82,03; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,88; 100,0</t>
+          <t>79,78; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>89,72; 100,0</t>
+          <t>84,15; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,67; 100,0</t>
+          <t>88,18; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,26; 100,0</t>
+          <t>69,23; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,03; 100,0</t>
+          <t>86,64; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1375,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,38; 100,0</t>
+          <t>88,27; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,35; 100,0</t>
+          <t>93,29; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,95</t>
+          <t>87,8; 98,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>85,15; 96,06</t>
+          <t>85,78; 96,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,96; 98,14</t>
+          <t>86,06; 98,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,34</t>
+          <t>90,23; 98,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>95,8; 99,53</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,32</t>
+          <t>92,91; 99,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,86</t>
+          <t>91,94; 97,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,79; 97,69</t>
+          <t>92,54; 97,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,17; 98,18</t>
+          <t>92,18; 98,14</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para alteraciones digestivas fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7610</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10068</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7900</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7638</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1059; 2458</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1222; 6566</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1267; 2941</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4808; 8479</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2474; 3881</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2994; 4697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7280; 10937</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4495; 9775</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5620; 7638</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9427</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11339</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6180</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11543</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9138</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15606</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22881</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16557</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5097; 12067</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6500; 14173</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2769; 9074</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3086; 7153</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8334; 12447</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7426; 9138</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11234; 18215</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16497; 26537</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10652; 18212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15925</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10741</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9027</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25798</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38072</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21266</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13159; 15057</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12099; 17698</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10319; 12239</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6708; 11759</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20233; 22147</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5270; 10836</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21762; 26816</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34031; 39845</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17227; 23075</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12396</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29653</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11365</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19928</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35664</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11824</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32324</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65317</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23189</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10451; 12396</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21400; 31739</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5987; 14162</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16625; 20904</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31355; 37718</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9969; 11824</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29295; 33300</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>57678; 68445</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17195; 25986</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15035</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14673</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23899</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21387</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33268</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36067</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36422</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47941</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59967</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13359; 15035</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12823; 14673</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19320; 25065</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17663; 22327</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31221; 33268</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32329; 37261</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32593; 37362</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45905; 47941</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>54289; 62326</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12486</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22402</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17101</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24723</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>38965</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23086</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37208</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61367</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40187</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10675; 12486</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>20165; 22402</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15299; 17101</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21014; 25619</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37104; 38965</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19194; 24059</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>32067; 38105</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>59342; 61367</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>36295; 41160</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15079</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>31026</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>17327</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23227</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41668</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>41143</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>38306</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>72694</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>58470</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11064; 15980</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27751; 32029</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15759; 17327</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>21126; 23227</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>39574; 41668</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38691; 41143</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>34607; 39207</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68750; 73697</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>56319; 58470</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>129037</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>92292</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>113797</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>187136</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>134981</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>195734</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>316174</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>227273</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>75049; 84577</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>120311; 135496</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>84259; 96038</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>107798; 117533</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>182076; 189201</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>129107; 138000</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>188423; 200356</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>305713; 322735</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>218352; 232463</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>